--- a/HW6_DATA.xlsx
+++ b/HW6_DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\JupyterWork\CMSE830_FDS\HW6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254B9583-3C20-4A41-A0B0-DB8EC718D90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07895E46-B418-48DC-A9B3-5634A622CF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="12570" windowHeight="13370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
   <dimension ref="A1:N242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -463,7 +463,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="1">
-        <v>3.5999999999999997E-2</v>
+        <v>3.6</v>
       </c>
       <c r="D2" s="1">
         <v>1072.03</v>

--- a/HW6_DATA.xlsx
+++ b/HW6_DATA.xlsx
@@ -8,29 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\JupyterWork\CMSE830_FDS\HW6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07895E46-B418-48DC-A9B3-5634A622CF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F030D61-98C8-4535-B6DD-E6EE8C004C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="16">
   <si>
     <t>YYYYMMDD</t>
-  </si>
-  <si>
-    <t>RECESSION_TYPE</t>
   </si>
   <si>
     <t>DEFAULT_RATE</t>
@@ -69,13 +74,15 @@
     <t>IMPORT_PRICE_INDEX</t>
   </si>
   <si>
-    <t>Recovery</t>
+    <t>RECESSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The?Great Recession</t>
+    <t>N</t>
   </si>
   <si>
-    <t>The COVID-19 Recession</t>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -406,7 +413,7 @@
   <dimension ref="A1:N242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B220" sqref="B220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -416,43 +423,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
@@ -463,7 +470,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="1">
-        <v>3.6</v>
+        <v>3.6283333333333334</v>
       </c>
       <c r="D2" s="1">
         <v>1072.03</v>
@@ -507,7 +514,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="1">
-        <v>3.6</v>
+        <v>3.6141666666666667</v>
       </c>
       <c r="D3" s="1">
         <v>1028.48</v>
@@ -595,7 +602,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="1">
-        <v>3.6</v>
+        <v>3.4608333333333334</v>
       </c>
       <c r="D5" s="1">
         <v>913.84500000000003</v>
@@ -639,7 +646,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="1">
-        <v>3.6</v>
+        <v>3.3216666666666668</v>
       </c>
       <c r="D6" s="1">
         <v>865.67499999999995</v>
@@ -683,7 +690,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="1">
-        <v>3.6</v>
+        <v>3.1825000000000001</v>
       </c>
       <c r="D7" s="1">
         <v>850.52</v>
@@ -727,7 +734,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="1">
-        <v>3.6</v>
+        <v>3.0433333333333334</v>
       </c>
       <c r="D8" s="1">
         <v>911.03499999999997</v>
@@ -771,7 +778,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="1">
-        <v>3.6</v>
+        <v>2.9041666666666668</v>
       </c>
       <c r="D9" s="1">
         <v>908.06500000000005</v>
@@ -815,7 +822,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="1">
-        <v>1.93</v>
+        <v>2.7650000000000001</v>
       </c>
       <c r="D10" s="1">
         <v>867.76</v>
@@ -859,7 +866,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="1">
-        <v>1.93</v>
+        <v>2.6258333333333335</v>
       </c>
       <c r="D11" s="1">
         <v>848.42499999999995</v>
@@ -903,7 +910,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="1">
-        <v>1.93</v>
+        <v>2.4866666666666668</v>
       </c>
       <c r="D12" s="1">
         <v>844.66499999999996</v>
@@ -947,7 +954,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="1">
-        <v>1.93</v>
+        <v>2.3475000000000001</v>
       </c>
       <c r="D13" s="1">
         <v>882.55</v>
@@ -991,7 +998,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="1">
-        <v>1.93</v>
+        <v>2.2083333333333335</v>
       </c>
       <c r="D14" s="1">
         <v>940.255</v>
@@ -1035,7 +1042,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="1">
-        <v>1.93</v>
+        <v>2.0691666666666668</v>
       </c>
       <c r="D15" s="1">
         <v>969.04499999999996</v>
@@ -1123,7 +1130,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="1">
-        <v>1.93</v>
+        <v>1.8341666666666665</v>
       </c>
       <c r="D17" s="1">
         <v>999.16</v>
@@ -1167,7 +1174,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="1">
-        <v>1.93</v>
+        <v>1.7383333333333333</v>
       </c>
       <c r="D18" s="1">
         <v>1001.99</v>
@@ -1211,7 +1218,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="1">
-        <v>1.93</v>
+        <v>1.6425000000000001</v>
       </c>
       <c r="D19" s="1">
         <v>1023.34</v>
@@ -1255,7 +1262,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="1">
-        <v>1.93</v>
+        <v>1.5466666666666669</v>
       </c>
       <c r="D20" s="1">
         <v>1054.4549999999999</v>
@@ -1299,7 +1306,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="1">
-        <v>1.93</v>
+        <v>1.4508333333333336</v>
       </c>
       <c r="D21" s="1">
         <v>1085.06</v>
@@ -1343,7 +1350,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="1">
-        <v>0.78</v>
+        <v>1.3550000000000004</v>
       </c>
       <c r="D22" s="1">
         <v>1121.5250000000001</v>
@@ -1387,7 +1394,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="1">
-        <v>0.78</v>
+        <v>1.2591666666666672</v>
       </c>
       <c r="D23" s="1">
         <v>1138.0350000000001</v>
@@ -1431,7 +1438,7 @@
         <v>14</v>
       </c>
       <c r="C24" s="1">
-        <v>0.78</v>
+        <v>1.163333333333334</v>
       </c>
       <c r="D24" s="1">
         <v>1135.575</v>
@@ -1475,7 +1482,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="1">
-        <v>0.78</v>
+        <v>1.0675000000000008</v>
       </c>
       <c r="D25" s="1">
         <v>1116.7550000000001</v>
@@ -1519,7 +1526,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="1">
-        <v>0.78</v>
+        <v>0.97166666666666746</v>
       </c>
       <c r="D26" s="1">
         <v>1113.99</v>
@@ -1563,7 +1570,7 @@
         <v>14</v>
       </c>
       <c r="C27" s="1">
-        <v>0.78</v>
+        <v>0.87583333333333413</v>
       </c>
       <c r="D27" s="1">
         <v>1130.76</v>
@@ -1651,7 +1658,7 @@
         <v>14</v>
       </c>
       <c r="C29" s="1">
-        <v>0.78</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="D29" s="1">
         <v>1102.98</v>
@@ -1695,7 +1702,7 @@
         <v>14</v>
       </c>
       <c r="C30" s="1">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="D30" s="1">
         <v>1109.4100000000001</v>
@@ -1739,7 +1746,7 @@
         <v>14</v>
       </c>
       <c r="C31" s="1">
-        <v>0.78</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="D31" s="1">
         <v>1122.3900000000001</v>
@@ -1783,7 +1790,7 @@
         <v>14</v>
       </c>
       <c r="C32" s="1">
-        <v>0.78</v>
+        <v>0.72</v>
       </c>
       <c r="D32" s="1">
         <v>1152.01</v>
@@ -1827,7 +1834,7 @@
         <v>14</v>
       </c>
       <c r="C33" s="1">
-        <v>0.78</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="D33" s="1">
         <v>1192.8499999999999</v>
@@ -1871,7 +1878,7 @@
         <v>14</v>
       </c>
       <c r="C34" s="1">
-        <v>0.6</v>
+        <v>0.69</v>
       </c>
       <c r="D34" s="1">
         <v>1196.595</v>
@@ -1915,7 +1922,7 @@
         <v>14</v>
       </c>
       <c r="C35" s="1">
-        <v>0.6</v>
+        <v>0.67499999999999993</v>
       </c>
       <c r="D35" s="1">
         <v>1192.4349999999999</v>
@@ -1959,7 +1966,7 @@
         <v>14</v>
       </c>
       <c r="C36" s="1">
-        <v>0.6</v>
+        <v>0.65999999999999992</v>
       </c>
       <c r="D36" s="1">
         <v>1192.095</v>
@@ -2003,7 +2010,7 @@
         <v>14</v>
       </c>
       <c r="C37" s="1">
-        <v>0.6</v>
+        <v>0.64499999999999991</v>
       </c>
       <c r="D37" s="1">
         <v>1168.72</v>
@@ -2047,7 +2054,7 @@
         <v>14</v>
       </c>
       <c r="C38" s="1">
-        <v>0.6</v>
+        <v>0.62999999999999989</v>
       </c>
       <c r="D38" s="1">
         <v>1174.175</v>
@@ -2091,7 +2098,7 @@
         <v>14</v>
       </c>
       <c r="C39" s="1">
-        <v>0.6</v>
+        <v>0.61499999999999988</v>
       </c>
       <c r="D39" s="1">
         <v>1191.415</v>
@@ -2179,7 +2186,7 @@
         <v>14</v>
       </c>
       <c r="C41" s="1">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="D41" s="1">
         <v>1227.2550000000001</v>
@@ -2223,7 +2230,7 @@
         <v>14</v>
       </c>
       <c r="C42" s="1">
-        <v>0.6</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D42" s="1">
         <v>1224.57</v>
@@ -2267,7 +2274,7 @@
         <v>14</v>
       </c>
       <c r="C43" s="1">
-        <v>0.6</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D43" s="1">
         <v>1217.9100000000001</v>
@@ -2311,7 +2318,7 @@
         <v>14</v>
       </c>
       <c r="C44" s="1">
-        <v>0.6</v>
+        <v>0.55999999999999994</v>
       </c>
       <c r="D44" s="1">
         <v>1228.2449999999999</v>
@@ -2355,7 +2362,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="1">
-        <v>0.6</v>
+        <v>0.54999999999999993</v>
       </c>
       <c r="D45" s="1">
         <v>1248.885</v>
@@ -2399,7 +2406,7 @@
         <v>14</v>
       </c>
       <c r="C46" s="1">
-        <v>0.48</v>
+        <v>0.53999999999999992</v>
       </c>
       <c r="D46" s="1">
         <v>1264.1849999999999</v>
@@ -2443,7 +2450,7 @@
         <v>14</v>
       </c>
       <c r="C47" s="1">
-        <v>0.48</v>
+        <v>0.52999999999999992</v>
       </c>
       <c r="D47" s="1">
         <v>1280.3699999999999</v>
@@ -2487,7 +2494,7 @@
         <v>14</v>
       </c>
       <c r="C48" s="1">
-        <v>0.48</v>
+        <v>0.51999999999999991</v>
       </c>
       <c r="D48" s="1">
         <v>1287.7650000000001</v>
@@ -2531,7 +2538,7 @@
         <v>14</v>
       </c>
       <c r="C49" s="1">
-        <v>0.48</v>
+        <v>0.5099999999999999</v>
       </c>
       <c r="D49" s="1">
         <v>1306.7449999999999</v>
@@ -2575,7 +2582,7 @@
         <v>14</v>
       </c>
       <c r="C50" s="1">
-        <v>0.48</v>
+        <v>0.49999999999999989</v>
       </c>
       <c r="D50" s="1">
         <v>1290.3499999999999</v>
@@ -2619,7 +2626,7 @@
         <v>14</v>
       </c>
       <c r="C51" s="1">
-        <v>0.48</v>
+        <v>0.48999999999999988</v>
       </c>
       <c r="D51" s="1">
         <v>1270.125</v>
@@ -2707,7 +2714,7 @@
         <v>14</v>
       </c>
       <c r="C53" s="1">
-        <v>0.48</v>
+        <v>0.47083333333333333</v>
       </c>
       <c r="D53" s="1">
         <v>1291.175</v>
@@ -2751,7 +2758,7 @@
         <v>14</v>
       </c>
       <c r="C54" s="1">
-        <v>0.48</v>
+        <v>0.46166666666666667</v>
       </c>
       <c r="D54" s="1">
         <v>1319.825</v>
@@ -2795,7 +2802,7 @@
         <v>14</v>
       </c>
       <c r="C55" s="1">
-        <v>0.48</v>
+        <v>0.45250000000000001</v>
       </c>
       <c r="D55" s="1">
         <v>1356.88</v>
@@ -2839,7 +2846,7 @@
         <v>14</v>
       </c>
       <c r="C56" s="1">
-        <v>0.48</v>
+        <v>0.44333333333333336</v>
       </c>
       <c r="D56" s="1">
         <v>1389.1949999999999</v>
@@ -2883,7 +2890,7 @@
         <v>14</v>
       </c>
       <c r="C57" s="1">
-        <v>0.48</v>
+        <v>0.4341666666666667</v>
       </c>
       <c r="D57" s="1">
         <v>1409.4649999999999</v>
@@ -2927,7 +2934,7 @@
         <v>14</v>
       </c>
       <c r="C58" s="1">
-        <v>0.37</v>
+        <v>0.42500000000000004</v>
       </c>
       <c r="D58" s="1">
         <v>1428.135</v>
@@ -2971,7 +2978,7 @@
         <v>14</v>
       </c>
       <c r="C59" s="1">
-        <v>0.37</v>
+        <v>0.41583333333333339</v>
       </c>
       <c r="D59" s="1">
         <v>1422.36</v>
@@ -3015,7 +3022,7 @@
         <v>14</v>
       </c>
       <c r="C60" s="1">
-        <v>0.37</v>
+        <v>0.40666666666666673</v>
       </c>
       <c r="D60" s="1">
         <v>1413.83</v>
@@ -3059,7 +3066,7 @@
         <v>14</v>
       </c>
       <c r="C61" s="1">
-        <v>0.37</v>
+        <v>0.39750000000000008</v>
       </c>
       <c r="D61" s="1">
         <v>1451.6</v>
@@ -3103,7 +3110,7 @@
         <v>14</v>
       </c>
       <c r="C62" s="1">
-        <v>0.37</v>
+        <v>0.38833333333333342</v>
       </c>
       <c r="D62" s="1">
         <v>1506.4949999999999</v>
@@ -3147,7 +3154,7 @@
         <v>14</v>
       </c>
       <c r="C63" s="1">
-        <v>0.37</v>
+        <v>0.37916666666666676</v>
       </c>
       <c r="D63" s="1">
         <v>1516.9849999999999</v>
@@ -3235,7 +3242,7 @@
         <v>14</v>
       </c>
       <c r="C65" s="1">
-        <v>0.37</v>
+        <v>0.48916666666666669</v>
       </c>
       <c r="D65" s="1">
         <v>1464.585</v>
@@ -3279,7 +3286,7 @@
         <v>14</v>
       </c>
       <c r="C66" s="1">
-        <v>0.37</v>
+        <v>0.60833333333333339</v>
       </c>
       <c r="D66" s="1">
         <v>1500.355</v>
@@ -3323,7 +3330,7 @@
         <v>14</v>
       </c>
       <c r="C67" s="1">
-        <v>0.37</v>
+        <v>0.72750000000000004</v>
       </c>
       <c r="D67" s="1">
         <v>1538.335</v>
@@ -3367,7 +3374,7 @@
         <v>14</v>
       </c>
       <c r="C68" s="1">
-        <v>0.37</v>
+        <v>0.84666666666666668</v>
       </c>
       <c r="D68" s="1">
         <v>1513.4649999999999</v>
@@ -3411,7 +3418,7 @@
         <v>15</v>
       </c>
       <c r="C69" s="1">
-        <v>0.37</v>
+        <v>0.96583333333333332</v>
       </c>
       <c r="D69" s="1">
         <v>1473.9949999999999</v>
@@ -3455,7 +3462,7 @@
         <v>15</v>
       </c>
       <c r="C70" s="1">
-        <v>1.8</v>
+        <v>1.085</v>
       </c>
       <c r="D70" s="1">
         <v>1423.26</v>
@@ -3499,7 +3506,7 @@
         <v>15</v>
       </c>
       <c r="C71" s="1">
-        <v>1.8</v>
+        <v>1.2041666666666666</v>
       </c>
       <c r="D71" s="1">
         <v>1354.615</v>
@@ -3543,7 +3550,7 @@
         <v>15</v>
       </c>
       <c r="C72" s="1">
-        <v>1.8</v>
+        <v>1.3233333333333333</v>
       </c>
       <c r="D72" s="1">
         <v>1326.575</v>
@@ -3587,7 +3594,7 @@
         <v>15</v>
       </c>
       <c r="C73" s="1">
-        <v>1.8</v>
+        <v>1.4424999999999999</v>
       </c>
       <c r="D73" s="1">
         <v>1356</v>
@@ -3631,7 +3638,7 @@
         <v>15</v>
       </c>
       <c r="C74" s="1">
-        <v>1.8</v>
+        <v>1.5616666666666665</v>
       </c>
       <c r="D74" s="1">
         <v>1393.175</v>
@@ -3675,7 +3682,7 @@
         <v>15</v>
       </c>
       <c r="C75" s="1">
-        <v>1.8</v>
+        <v>1.6808333333333332</v>
       </c>
       <c r="D75" s="1">
         <v>1339.81</v>
@@ -3763,7 +3770,7 @@
         <v>15</v>
       </c>
       <c r="C77" s="1">
-        <v>1.8</v>
+        <v>1.9975000000000001</v>
       </c>
       <c r="D77" s="1">
         <v>1276.125</v>
@@ -3807,7 +3814,7 @@
         <v>15</v>
       </c>
       <c r="C78" s="1">
-        <v>1.8</v>
+        <v>2.1950000000000003</v>
       </c>
       <c r="D78" s="1">
         <v>1227.095</v>
@@ -3851,7 +3858,7 @@
         <v>15</v>
       </c>
       <c r="C79" s="1">
-        <v>1.8</v>
+        <v>2.3925000000000001</v>
       </c>
       <c r="D79" s="1">
         <v>1066.46</v>
@@ -3895,7 +3902,7 @@
         <v>15</v>
       </c>
       <c r="C80" s="1">
-        <v>1.8</v>
+        <v>2.59</v>
       </c>
       <c r="D80" s="1">
         <v>932.45500000000004</v>
@@ -3939,7 +3946,7 @@
         <v>15</v>
       </c>
       <c r="C81" s="1">
-        <v>1.8</v>
+        <v>2.7874999999999996</v>
       </c>
       <c r="D81" s="1">
         <v>895.93</v>
@@ -3983,7 +3990,7 @@
         <v>15</v>
       </c>
       <c r="C82" s="1">
-        <v>4.17</v>
+        <v>2.9849999999999994</v>
       </c>
       <c r="D82" s="1">
         <v>864.43499999999995</v>
@@ -4027,7 +4034,7 @@
         <v>15</v>
       </c>
       <c r="C83" s="1">
-        <v>4.17</v>
+        <v>3.1824999999999992</v>
       </c>
       <c r="D83" s="1">
         <v>779.09</v>
@@ -4071,7 +4078,7 @@
         <v>15</v>
       </c>
       <c r="C84" s="1">
-        <v>4.17</v>
+        <v>3.379999999999999</v>
       </c>
       <c r="D84" s="1">
         <v>763.72</v>
@@ -4115,7 +4122,7 @@
         <v>15</v>
       </c>
       <c r="C85" s="1">
-        <v>4.17</v>
+        <v>3.5774999999999988</v>
       </c>
       <c r="D85" s="1">
         <v>833.2</v>
@@ -4159,7 +4166,7 @@
         <v>15</v>
       </c>
       <c r="C86" s="1">
-        <v>4.17</v>
+        <v>3.7749999999999986</v>
       </c>
       <c r="D86" s="1">
         <v>895.94</v>
@@ -4203,7 +4210,7 @@
         <v>15</v>
       </c>
       <c r="C87" s="1">
-        <v>4.17</v>
+        <v>3.9724999999999984</v>
       </c>
       <c r="D87" s="1">
         <v>921.29</v>
@@ -4291,7 +4298,7 @@
         <v>14</v>
       </c>
       <c r="C89" s="1">
-        <v>4.17</v>
+        <v>3.9233333333333333</v>
       </c>
       <c r="D89" s="1">
         <v>1005.42</v>
@@ -4335,7 +4342,7 @@
         <v>14</v>
       </c>
       <c r="C90" s="1">
-        <v>4.17</v>
+        <v>3.6766666666666667</v>
       </c>
       <c r="D90" s="1">
         <v>1038.3</v>
@@ -4379,7 +4386,7 @@
         <v>14</v>
       </c>
       <c r="C91" s="1">
-        <v>4.17</v>
+        <v>3.43</v>
       </c>
       <c r="D91" s="1">
         <v>1045.55</v>
@@ -4423,7 +4430,7 @@
         <v>14</v>
       </c>
       <c r="C92" s="1">
-        <v>4.17</v>
+        <v>3.1833333333333336</v>
       </c>
       <c r="D92" s="1">
         <v>1065.905</v>
@@ -4467,7 +4474,7 @@
         <v>14</v>
       </c>
       <c r="C93" s="1">
-        <v>4.17</v>
+        <v>2.936666666666667</v>
       </c>
       <c r="D93" s="1">
         <v>1106.9949999999999</v>
@@ -4511,7 +4518,7 @@
         <v>14</v>
       </c>
       <c r="C94" s="1">
-        <v>1.21</v>
+        <v>2.6900000000000004</v>
       </c>
       <c r="D94" s="1">
         <v>1095.2149999999999</v>
@@ -4555,7 +4562,7 @@
         <v>14</v>
       </c>
       <c r="C95" s="1">
-        <v>1.21</v>
+        <v>2.4433333333333338</v>
       </c>
       <c r="D95" s="1">
         <v>1089.19</v>
@@ -4599,7 +4606,7 @@
         <v>14</v>
       </c>
       <c r="C96" s="1">
-        <v>1.21</v>
+        <v>2.1966666666666672</v>
       </c>
       <c r="D96" s="1">
         <v>1137.395</v>
@@ -4643,7 +4650,7 @@
         <v>14</v>
       </c>
       <c r="C97" s="1">
-        <v>1.21</v>
+        <v>1.9500000000000006</v>
       </c>
       <c r="D97" s="1">
         <v>1178.96</v>
@@ -4687,7 +4694,7 @@
         <v>14</v>
       </c>
       <c r="C98" s="1">
-        <v>1.21</v>
+        <v>1.703333333333334</v>
       </c>
       <c r="D98" s="1">
         <v>1138.9949999999999</v>
@@ -4731,7 +4738,7 @@
         <v>14</v>
       </c>
       <c r="C99" s="1">
-        <v>1.21</v>
+        <v>1.4566666666666674</v>
       </c>
       <c r="D99" s="1">
         <v>1059.0050000000001</v>
@@ -4819,7 +4826,7 @@
         <v>14</v>
       </c>
       <c r="C101" s="1">
-        <v>1.21</v>
+        <v>1.1758333333333333</v>
       </c>
       <c r="D101" s="1">
         <v>1078.43</v>
@@ -4863,7 +4870,7 @@
         <v>14</v>
       </c>
       <c r="C102" s="1">
-        <v>1.21</v>
+        <v>1.1416666666666666</v>
       </c>
       <c r="D102" s="1">
         <v>1095.46</v>
@@ -4907,7 +4914,7 @@
         <v>14</v>
       </c>
       <c r="C103" s="1">
-        <v>1.21</v>
+        <v>1.1074999999999999</v>
       </c>
       <c r="D103" s="1">
         <v>1163.375</v>
@@ -4951,7 +4958,7 @@
         <v>14</v>
       </c>
       <c r="C104" s="1">
-        <v>1.21</v>
+        <v>1.0733333333333333</v>
       </c>
       <c r="D104" s="1">
         <v>1183.1300000000001</v>
@@ -4995,7 +5002,7 @@
         <v>14</v>
       </c>
       <c r="C105" s="1">
-        <v>1.21</v>
+        <v>1.0391666666666666</v>
       </c>
       <c r="D105" s="1">
         <v>1222.1199999999999</v>
@@ -5039,7 +5046,7 @@
         <v>14</v>
       </c>
       <c r="C106" s="1">
-        <v>0.8</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="D106" s="1">
         <v>1271.8699999999999</v>
@@ -5083,7 +5090,7 @@
         <v>14</v>
       </c>
       <c r="C107" s="1">
-        <v>0.8</v>
+        <v>0.97083333333333321</v>
       </c>
       <c r="D107" s="1">
         <v>1308.18</v>
@@ -5127,7 +5134,7 @@
         <v>14</v>
       </c>
       <c r="C108" s="1">
-        <v>0.8</v>
+        <v>0.93666666666666654</v>
       </c>
       <c r="D108" s="1">
         <v>1327.2349999999999</v>
@@ -5171,7 +5178,7 @@
         <v>14</v>
       </c>
       <c r="C109" s="1">
-        <v>0.8</v>
+        <v>0.90249999999999986</v>
       </c>
       <c r="D109" s="1">
         <v>1346.5450000000001</v>
@@ -5215,7 +5222,7 @@
         <v>14</v>
       </c>
       <c r="C110" s="1">
-        <v>0.8</v>
+        <v>0.86833333333333318</v>
       </c>
       <c r="D110" s="1">
         <v>1355.2049999999999</v>
@@ -5259,7 +5266,7 @@
         <v>14</v>
       </c>
       <c r="C111" s="1">
-        <v>0.8</v>
+        <v>0.8341666666666665</v>
       </c>
       <c r="D111" s="1">
         <v>1332.92</v>
@@ -5347,7 +5354,7 @@
         <v>14</v>
       </c>
       <c r="C113" s="1">
-        <v>0.8</v>
+        <v>0.82833333333333337</v>
       </c>
       <c r="D113" s="1">
         <v>1255.74</v>
@@ -5391,7 +5398,7 @@
         <v>14</v>
       </c>
       <c r="C114" s="1">
-        <v>0.8</v>
+        <v>0.85666666666666669</v>
       </c>
       <c r="D114" s="1">
         <v>1175.27</v>
@@ -5435,7 +5442,7 @@
         <v>14</v>
       </c>
       <c r="C115" s="1">
-        <v>0.8</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="D115" s="1">
         <v>1192.2550000000001</v>
@@ -5479,7 +5486,7 @@
         <v>14</v>
       </c>
       <c r="C116" s="1">
-        <v>0.8</v>
+        <v>0.91333333333333333</v>
       </c>
       <c r="D116" s="1">
         <v>1248.98</v>
@@ -5523,7 +5530,7 @@
         <v>14</v>
       </c>
       <c r="C117" s="1">
-        <v>0.8</v>
+        <v>0.94166666666666665</v>
       </c>
       <c r="D117" s="1">
         <v>1252.2550000000001</v>
@@ -5567,7 +5574,7 @@
         <v>14</v>
       </c>
       <c r="C118" s="1">
-        <v>1.1399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="D118" s="1">
         <v>1285.635</v>
@@ -5611,7 +5618,7 @@
         <v>14</v>
       </c>
       <c r="C119" s="1">
-        <v>1.1399999999999999</v>
+        <v>0.99833333333333329</v>
       </c>
       <c r="D119" s="1">
         <v>1339.0650000000001</v>
@@ -5655,7 +5662,7 @@
         <v>14</v>
       </c>
       <c r="C120" s="1">
-        <v>1.1399999999999999</v>
+        <v>1.0266666666666666</v>
       </c>
       <c r="D120" s="1">
         <v>1387.1849999999999</v>
@@ -5699,7 +5706,7 @@
         <v>14</v>
       </c>
       <c r="C121" s="1">
-        <v>1.1399999999999999</v>
+        <v>1.0549999999999999</v>
       </c>
       <c r="D121" s="1">
         <v>1403.19</v>
@@ -5743,7 +5750,7 @@
         <v>14</v>
       </c>
       <c r="C122" s="1">
-        <v>1.1399999999999999</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="D122" s="1">
         <v>1354.095</v>
@@ -5787,7 +5794,7 @@
         <v>14</v>
       </c>
       <c r="C123" s="1">
-        <v>1.1399999999999999</v>
+        <v>1.1116666666666666</v>
       </c>
       <c r="D123" s="1">
         <v>1336.0150000000001</v>
@@ -5875,7 +5882,7 @@
         <v>14</v>
       </c>
       <c r="C125" s="1">
-        <v>1.1399999999999999</v>
+        <v>1.1308333333333334</v>
       </c>
       <c r="D125" s="1">
         <v>1392.95</v>
@@ -5919,7 +5926,7 @@
         <v>14</v>
       </c>
       <c r="C126" s="1">
-        <v>1.1399999999999999</v>
+        <v>1.1216666666666666</v>
       </c>
       <c r="D126" s="1">
         <v>1423.605</v>
@@ -5963,7 +5970,7 @@
         <v>14</v>
       </c>
       <c r="C127" s="1">
-        <v>1.1399999999999999</v>
+        <v>1.1124999999999998</v>
       </c>
       <c r="D127" s="1">
         <v>1426.53</v>
@@ -6007,7 +6014,7 @@
         <v>14</v>
       </c>
       <c r="C128" s="1">
-        <v>1.1399999999999999</v>
+        <v>1.1033333333333331</v>
       </c>
       <c r="D128" s="1">
         <v>1414.19</v>
@@ -6051,7 +6058,7 @@
         <v>14</v>
       </c>
       <c r="C129" s="1">
-        <v>1.1399999999999999</v>
+        <v>1.0941666666666663</v>
       </c>
       <c r="D129" s="1">
         <v>1421.2650000000001</v>
@@ -6095,7 +6102,7 @@
         <v>14</v>
       </c>
       <c r="C130" s="1">
-        <v>1.03</v>
+        <v>1.0849999999999995</v>
       </c>
       <c r="D130" s="1">
         <v>1462.15</v>
@@ -6139,7 +6146,7 @@
         <v>14</v>
       </c>
       <c r="C131" s="1">
-        <v>1.03</v>
+        <v>1.0758333333333328</v>
       </c>
       <c r="D131" s="1">
         <v>1506.395</v>
@@ -6183,7 +6190,7 @@
         <v>14</v>
       </c>
       <c r="C132" s="1">
-        <v>1.03</v>
+        <v>1.066666666666666</v>
       </c>
       <c r="D132" s="1">
         <v>1541.9349999999999</v>
@@ -6227,7 +6234,7 @@
         <v>14</v>
       </c>
       <c r="C133" s="1">
-        <v>1.03</v>
+        <v>1.0574999999999992</v>
       </c>
       <c r="D133" s="1">
         <v>1583.375</v>
@@ -6271,7 +6278,7 @@
         <v>14</v>
       </c>
       <c r="C134" s="1">
-        <v>1.03</v>
+        <v>1.0483333333333325</v>
       </c>
       <c r="D134" s="1">
         <v>1614.145</v>
@@ -6315,7 +6322,7 @@
         <v>14</v>
       </c>
       <c r="C135" s="1">
-        <v>1.03</v>
+        <v>1.0391666666666657</v>
       </c>
       <c r="D135" s="1">
         <v>1618.9949999999999</v>
@@ -6403,7 +6410,7 @@
         <v>14</v>
       </c>
       <c r="C137" s="1">
-        <v>1.03</v>
+        <v>1.0016666666666667</v>
       </c>
       <c r="D137" s="1">
         <v>1661.1949999999999</v>
@@ -6447,7 +6454,7 @@
         <v>14</v>
       </c>
       <c r="C138" s="1">
-        <v>1.03</v>
+        <v>0.97333333333333338</v>
       </c>
       <c r="D138" s="1">
         <v>1658.75</v>
@@ -6491,7 +6498,7 @@
         <v>14</v>
       </c>
       <c r="C139" s="1">
-        <v>1.03</v>
+        <v>0.94500000000000006</v>
       </c>
       <c r="D139" s="1">
         <v>1719.4749999999999</v>
@@ -6535,7 +6542,7 @@
         <v>14</v>
       </c>
       <c r="C140" s="1">
-        <v>1.03</v>
+        <v>0.91666666666666674</v>
       </c>
       <c r="D140" s="1">
         <v>1782.2550000000001</v>
@@ -6579,7 +6586,7 @@
         <v>14</v>
       </c>
       <c r="C141" s="1">
-        <v>1.03</v>
+        <v>0.88833333333333342</v>
       </c>
       <c r="D141" s="1">
         <v>1827.4549999999999</v>
@@ -6623,7 +6630,7 @@
         <v>14</v>
       </c>
       <c r="C142" s="1">
-        <v>0.69</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="D142" s="1">
         <v>1814.2249999999999</v>
@@ -6667,7 +6674,7 @@
         <v>14</v>
       </c>
       <c r="C143" s="1">
-        <v>0.69</v>
+        <v>0.83166666666666678</v>
       </c>
       <c r="D143" s="1">
         <v>1821.0650000000001</v>
@@ -6711,7 +6718,7 @@
         <v>14</v>
       </c>
       <c r="C144" s="1">
-        <v>0.69</v>
+        <v>0.80333333333333345</v>
       </c>
       <c r="D144" s="1">
         <v>1865.01</v>
@@ -6755,7 +6762,7 @@
         <v>14</v>
       </c>
       <c r="C145" s="1">
-        <v>0.69</v>
+        <v>0.77500000000000013</v>
       </c>
       <c r="D145" s="1">
         <v>1878.9549999999999</v>
@@ -6799,7 +6806,7 @@
         <v>14</v>
       </c>
       <c r="C146" s="1">
-        <v>0.69</v>
+        <v>0.74666666666666681</v>
       </c>
       <c r="D146" s="1">
         <v>1903.98</v>
@@ -6843,7 +6850,7 @@
         <v>14</v>
       </c>
       <c r="C147" s="1">
-        <v>0.69</v>
+        <v>0.71833333333333349</v>
       </c>
       <c r="D147" s="1">
         <v>1942.05</v>
@@ -6931,7 +6938,7 @@
         <v>14</v>
       </c>
       <c r="C149" s="1">
-        <v>0.69</v>
+        <v>0.74583333333333335</v>
       </c>
       <c r="D149" s="1">
         <v>1966.585</v>
@@ -6975,7 +6982,7 @@
         <v>14</v>
       </c>
       <c r="C150" s="1">
-        <v>0.69</v>
+        <v>0.80166666666666675</v>
       </c>
       <c r="D150" s="1">
         <v>1988.18</v>
@@ -7019,7 +7026,7 @@
         <v>14</v>
       </c>
       <c r="C151" s="1">
-        <v>0.69</v>
+        <v>0.85750000000000015</v>
       </c>
       <c r="D151" s="1">
         <v>1994.7449999999999</v>
@@ -7063,7 +7070,7 @@
         <v>14</v>
       </c>
       <c r="C152" s="1">
-        <v>0.69</v>
+        <v>0.91333333333333355</v>
       </c>
       <c r="D152" s="1">
         <v>2042.885</v>
@@ -7107,7 +7114,7 @@
         <v>14</v>
       </c>
       <c r="C153" s="1">
-        <v>0.69</v>
+        <v>0.96916666666666695</v>
       </c>
       <c r="D153" s="1">
         <v>2062.34</v>
@@ -7151,7 +7158,7 @@
         <v>14</v>
       </c>
       <c r="C154" s="1">
-        <v>1.36</v>
+        <v>1.0250000000000004</v>
       </c>
       <c r="D154" s="1">
         <v>2026.9449999999999</v>
@@ -7195,7 +7202,7 @@
         <v>14</v>
       </c>
       <c r="C155" s="1">
-        <v>1.36</v>
+        <v>1.0808333333333338</v>
       </c>
       <c r="D155" s="1">
         <v>2050.585</v>
@@ -7239,7 +7246,7 @@
         <v>14</v>
       </c>
       <c r="C156" s="1">
-        <v>1.36</v>
+        <v>1.1366666666666672</v>
       </c>
       <c r="D156" s="1">
         <v>2086.56</v>
@@ -7283,7 +7290,7 @@
         <v>14</v>
       </c>
       <c r="C157" s="1">
-        <v>1.36</v>
+        <v>1.1925000000000006</v>
       </c>
       <c r="D157" s="1">
         <v>2076.5700000000002</v>
@@ -7327,7 +7334,7 @@
         <v>14</v>
       </c>
       <c r="C158" s="1">
-        <v>1.36</v>
+        <v>1.248333333333334</v>
       </c>
       <c r="D158" s="1">
         <v>2097.3850000000002</v>
@@ -7371,7 +7378,7 @@
         <v>14</v>
       </c>
       <c r="C159" s="1">
-        <v>1.36</v>
+        <v>1.3041666666666674</v>
       </c>
       <c r="D159" s="1">
         <v>2085.875</v>
@@ -7459,7 +7466,7 @@
         <v>14</v>
       </c>
       <c r="C161" s="1">
-        <v>1.36</v>
+        <v>1.4208333333333334</v>
       </c>
       <c r="D161" s="1">
         <v>2038.335</v>
@@ -7503,7 +7510,7 @@
         <v>14</v>
       </c>
       <c r="C162" s="1">
-        <v>1.36</v>
+        <v>1.4816666666666667</v>
       </c>
       <c r="D162" s="1">
         <v>1945.06</v>
@@ -7547,7 +7554,7 @@
         <v>14</v>
       </c>
       <c r="C163" s="1">
-        <v>1.36</v>
+        <v>1.5425</v>
       </c>
       <c r="D163" s="1">
         <v>1999.5050000000001</v>
@@ -7591,7 +7598,7 @@
         <v>14</v>
       </c>
       <c r="C164" s="1">
-        <v>1.36</v>
+        <v>1.6033333333333333</v>
       </c>
       <c r="D164" s="1">
         <v>2080.585</v>
@@ -7635,7 +7642,7 @@
         <v>14</v>
       </c>
       <c r="C165" s="1">
-        <v>1.36</v>
+        <v>1.6641666666666666</v>
       </c>
       <c r="D165" s="1">
         <v>2063.4349999999999</v>
@@ -7679,7 +7686,7 @@
         <v>14</v>
       </c>
       <c r="C166" s="1">
-        <v>2.09</v>
+        <v>1.7249999999999999</v>
       </c>
       <c r="D166" s="1">
         <v>1989.22</v>
@@ -7723,7 +7730,7 @@
         <v>14</v>
       </c>
       <c r="C167" s="1">
-        <v>2.09</v>
+        <v>1.7858333333333332</v>
       </c>
       <c r="D167" s="1">
         <v>1934.585</v>
@@ -7767,7 +7774,7 @@
         <v>14</v>
       </c>
       <c r="C168" s="1">
-        <v>2.09</v>
+        <v>1.8466666666666665</v>
       </c>
       <c r="D168" s="1">
         <v>1998.415</v>
@@ -7811,7 +7818,7 @@
         <v>14</v>
       </c>
       <c r="C169" s="1">
-        <v>2.09</v>
+        <v>1.9074999999999998</v>
       </c>
       <c r="D169" s="1">
         <v>2060.96</v>
@@ -7855,7 +7862,7 @@
         <v>14</v>
       </c>
       <c r="C170" s="1">
-        <v>2.09</v>
+        <v>1.968333333333333</v>
       </c>
       <c r="D170" s="1">
         <v>2082.06</v>
@@ -7899,7 +7906,7 @@
         <v>14</v>
       </c>
       <c r="C171" s="1">
-        <v>2.09</v>
+        <v>2.0291666666666663</v>
       </c>
       <c r="D171" s="1">
         <v>2096.4</v>
@@ -7987,7 +7994,7 @@
         <v>14</v>
       </c>
       <c r="C173" s="1">
-        <v>2.09</v>
+        <v>2.0166666666666666</v>
       </c>
       <c r="D173" s="1">
         <v>2172.0500000000002</v>
@@ -8031,7 +8038,7 @@
         <v>14</v>
       </c>
       <c r="C174" s="1">
-        <v>2.09</v>
+        <v>1.9433333333333334</v>
       </c>
       <c r="D174" s="1">
         <v>2169.8000000000002</v>
@@ -8075,7 +8082,7 @@
         <v>14</v>
       </c>
       <c r="C175" s="1">
-        <v>2.09</v>
+        <v>1.87</v>
       </c>
       <c r="D175" s="1">
         <v>2145.2399999999998</v>
@@ -8119,7 +8126,7 @@
         <v>14</v>
       </c>
       <c r="C176" s="1">
-        <v>2.09</v>
+        <v>1.7966666666666669</v>
       </c>
       <c r="D176" s="1">
         <v>2163.7449999999999</v>
@@ -8163,7 +8170,7 @@
         <v>14</v>
       </c>
       <c r="C177" s="1">
-        <v>2.09</v>
+        <v>1.7233333333333336</v>
       </c>
       <c r="D177" s="1">
         <v>2219.5</v>
@@ -8207,7 +8214,7 @@
         <v>14</v>
       </c>
       <c r="C178" s="1">
-        <v>1.21</v>
+        <v>1.6500000000000004</v>
       </c>
       <c r="D178" s="1">
         <v>2265.2199999999998</v>
@@ -8251,7 +8258,7 @@
         <v>14</v>
       </c>
       <c r="C179" s="1">
-        <v>1.21</v>
+        <v>1.5766666666666671</v>
       </c>
       <c r="D179" s="1">
         <v>2324.6149999999998</v>
@@ -8295,7 +8302,7 @@
         <v>14</v>
       </c>
       <c r="C180" s="1">
-        <v>1.21</v>
+        <v>1.5033333333333339</v>
       </c>
       <c r="D180" s="1">
         <v>2371.4250000000002</v>
@@ -8339,7 +8346,7 @@
         <v>14</v>
       </c>
       <c r="C181" s="1">
-        <v>1.21</v>
+        <v>1.4300000000000006</v>
       </c>
       <c r="D181" s="1">
         <v>2373.27</v>
@@ -8383,7 +8390,7 @@
         <v>14</v>
       </c>
       <c r="C182" s="1">
-        <v>1.21</v>
+        <v>1.3566666666666674</v>
       </c>
       <c r="D182" s="1">
         <v>2400.15</v>
@@ -8427,7 +8434,7 @@
         <v>14</v>
       </c>
       <c r="C183" s="1">
-        <v>1.21</v>
+        <v>1.2833333333333341</v>
       </c>
       <c r="D183" s="1">
         <v>2419.5300000000002</v>
@@ -8515,7 +8522,7 @@
         <v>14</v>
       </c>
       <c r="C185" s="1">
-        <v>1.21</v>
+        <v>1.1941666666666666</v>
       </c>
       <c r="D185" s="1">
         <v>2474.375</v>
@@ -8559,7 +8566,7 @@
         <v>14</v>
       </c>
       <c r="C186" s="1">
-        <v>1.21</v>
+        <v>1.1783333333333332</v>
       </c>
       <c r="D186" s="1">
         <v>2496.89</v>
@@ -8603,7 +8610,7 @@
         <v>14</v>
       </c>
       <c r="C187" s="1">
-        <v>1.21</v>
+        <v>1.1624999999999999</v>
       </c>
       <c r="D187" s="1">
         <v>2548.23</v>
@@ -8647,7 +8654,7 @@
         <v>14</v>
       </c>
       <c r="C188" s="1">
-        <v>1.21</v>
+        <v>1.1466666666666665</v>
       </c>
       <c r="D188" s="1">
         <v>2615.395</v>
@@ -8691,7 +8698,7 @@
         <v>14</v>
       </c>
       <c r="C189" s="1">
-        <v>1.21</v>
+        <v>1.1308333333333331</v>
       </c>
       <c r="D189" s="1">
         <v>2659.355</v>
@@ -8735,7 +8742,7 @@
         <v>14</v>
       </c>
       <c r="C190" s="1">
-        <v>1.02</v>
+        <v>1.1149999999999998</v>
       </c>
       <c r="D190" s="1">
         <v>2753.77</v>
@@ -8779,7 +8786,7 @@
         <v>14</v>
       </c>
       <c r="C191" s="1">
-        <v>1.02</v>
+        <v>1.0991666666666664</v>
       </c>
       <c r="D191" s="1">
         <v>2765.14</v>
@@ -8823,7 +8830,7 @@
         <v>14</v>
       </c>
       <c r="C192" s="1">
-        <v>1.02</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="D192" s="1">
         <v>2678.0450000000001</v>
@@ -8867,7 +8874,7 @@
         <v>14</v>
       </c>
       <c r="C193" s="1">
-        <v>1.02</v>
+        <v>1.0674999999999997</v>
       </c>
       <c r="D193" s="1">
         <v>2640.75</v>
@@ -8911,7 +8918,7 @@
         <v>14</v>
       </c>
       <c r="C194" s="1">
-        <v>1.02</v>
+        <v>1.0516666666666663</v>
       </c>
       <c r="D194" s="1">
         <v>2674.1149999999998</v>
@@ -8955,7 +8962,7 @@
         <v>14</v>
       </c>
       <c r="C195" s="1">
-        <v>1.02</v>
+        <v>1.0358333333333329</v>
       </c>
       <c r="D195" s="1">
         <v>2718.5349999999999</v>
@@ -9043,7 +9050,7 @@
         <v>14</v>
       </c>
       <c r="C197" s="1">
-        <v>1.02</v>
+        <v>1.0433333333333334</v>
       </c>
       <c r="D197" s="1">
         <v>2861.3449999999998</v>
@@ -9087,7 +9094,7 @@
         <v>14</v>
       </c>
       <c r="C198" s="1">
-        <v>1.02</v>
+        <v>1.0666666666666669</v>
       </c>
       <c r="D198" s="1">
         <v>2905.47</v>
@@ -9131,7 +9138,7 @@
         <v>14</v>
       </c>
       <c r="C199" s="1">
-        <v>1.02</v>
+        <v>1.0900000000000003</v>
       </c>
       <c r="D199" s="1">
         <v>2819.0149999999999</v>
@@ -9175,7 +9182,7 @@
         <v>14</v>
       </c>
       <c r="C200" s="1">
-        <v>1.02</v>
+        <v>1.1133333333333337</v>
       </c>
       <c r="D200" s="1">
         <v>2738.875</v>
@@ -9219,7 +9226,7 @@
         <v>14</v>
       </c>
       <c r="C201" s="1">
-        <v>1.02</v>
+        <v>1.1366666666666672</v>
       </c>
       <c r="D201" s="1">
         <v>2648.6750000000002</v>
@@ -9263,7 +9270,7 @@
         <v>14</v>
       </c>
       <c r="C202" s="1">
-        <v>1.3</v>
+        <v>1.1600000000000006</v>
       </c>
       <c r="D202" s="1">
         <v>2590.5300000000002</v>
@@ -9307,7 +9314,7 @@
         <v>14</v>
       </c>
       <c r="C203" s="1">
-        <v>1.3</v>
+        <v>1.183333333333334</v>
       </c>
       <c r="D203" s="1">
         <v>2743.4050000000002</v>
@@ -9351,7 +9358,7 @@
         <v>14</v>
       </c>
       <c r="C204" s="1">
-        <v>1.3</v>
+        <v>1.2066666666666674</v>
       </c>
       <c r="D204" s="1">
         <v>2816.31</v>
@@ -9395,7 +9402,7 @@
         <v>14</v>
       </c>
       <c r="C205" s="1">
-        <v>1.3</v>
+        <v>1.2300000000000009</v>
       </c>
       <c r="D205" s="1">
         <v>2897.23</v>
@@ -9439,7 +9446,7 @@
         <v>14</v>
       </c>
       <c r="C206" s="1">
-        <v>1.3</v>
+        <v>1.2533333333333343</v>
       </c>
       <c r="D206" s="1">
         <v>2852.1950000000002</v>
@@ -9483,7 +9490,7 @@
         <v>14</v>
       </c>
       <c r="C207" s="1">
-        <v>1.3</v>
+        <v>1.2766666666666677</v>
       </c>
       <c r="D207" s="1">
         <v>2846.645</v>
@@ -9571,7 +9578,7 @@
         <v>14</v>
       </c>
       <c r="C209" s="1">
-        <v>1.3</v>
+        <v>1.4208333333333334</v>
       </c>
       <c r="D209" s="1">
         <v>2953.39</v>
@@ -9615,7 +9622,7 @@
         <v>14</v>
       </c>
       <c r="C210" s="1">
-        <v>1.3</v>
+        <v>1.5416666666666667</v>
       </c>
       <c r="D210" s="1">
         <v>2942.875</v>
@@ -9659,7 +9666,7 @@
         <v>14</v>
       </c>
       <c r="C211" s="1">
-        <v>1.3</v>
+        <v>1.6625000000000001</v>
       </c>
       <c r="D211" s="1">
         <v>3010.625</v>
@@ -9703,7 +9710,7 @@
         <v>14</v>
       </c>
       <c r="C212" s="1">
-        <v>1.3</v>
+        <v>1.7833333333333334</v>
       </c>
       <c r="D212" s="1">
         <v>3095.85</v>
@@ -9747,7 +9754,7 @@
         <v>14</v>
       </c>
       <c r="C213" s="1">
-        <v>1.3</v>
+        <v>1.9041666666666668</v>
       </c>
       <c r="D213" s="1">
         <v>3187.3150000000001</v>
@@ -9791,7 +9798,7 @@
         <v>14</v>
       </c>
       <c r="C214" s="1">
-        <v>2.75</v>
+        <v>2.0249999999999999</v>
       </c>
       <c r="D214" s="1">
         <v>3235.0949999999998</v>
@@ -9832,10 +9839,10 @@
         <v>20200201</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C215" s="1">
-        <v>2.75</v>
+        <v>2.145833333333333</v>
       </c>
       <c r="D215" s="1">
         <v>3094.94</v>
@@ -9876,10 +9883,10 @@
         <v>20200301</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C216" s="1">
-        <v>2.75</v>
+        <v>2.2666666666666662</v>
       </c>
       <c r="D216" s="1">
         <v>2779.4349999999999</v>
@@ -9920,10 +9927,10 @@
         <v>20200401</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C217" s="1">
-        <v>2.75</v>
+        <v>2.3874999999999993</v>
       </c>
       <c r="D217" s="1">
         <v>2705.2550000000001</v>
@@ -9967,7 +9974,7 @@
         <v>14</v>
       </c>
       <c r="C218" s="1">
-        <v>2.75</v>
+        <v>2.5083333333333324</v>
       </c>
       <c r="D218" s="1">
         <v>2956.7</v>
@@ -10011,7 +10018,7 @@
         <v>14</v>
       </c>
       <c r="C219" s="1">
-        <v>2.75</v>
+        <v>2.6291666666666655</v>
       </c>
       <c r="D219" s="1">
         <v>3069.5349999999999</v>
@@ -10099,7 +10106,7 @@
         <v>14</v>
       </c>
       <c r="C221" s="1">
-        <v>2.75</v>
+        <v>2.5908333333333333</v>
       </c>
       <c r="D221" s="1">
         <v>3394.2849999999999</v>
@@ -10143,7 +10150,7 @@
         <v>14</v>
       </c>
       <c r="C222" s="1">
-        <v>2.75</v>
+        <v>2.4316666666666666</v>
       </c>
       <c r="D222" s="1">
         <v>3435.22</v>
@@ -10187,7 +10194,7 @@
         <v>14</v>
       </c>
       <c r="C223" s="1">
-        <v>2.75</v>
+        <v>2.2725</v>
       </c>
       <c r="D223" s="1">
         <v>3327.915</v>
@@ -10231,7 +10238,7 @@
         <v>14</v>
       </c>
       <c r="C224" s="1">
-        <v>2.75</v>
+        <v>2.1133333333333333</v>
       </c>
       <c r="D224" s="1">
         <v>3458.915</v>
@@ -10275,7 +10282,7 @@
         <v>14</v>
       </c>
       <c r="C225" s="1">
-        <v>2.75</v>
+        <v>1.9541666666666666</v>
       </c>
       <c r="D225" s="1">
         <v>3700.97</v>
@@ -10319,7 +10326,7 @@
         <v>14</v>
       </c>
       <c r="C226" s="1">
-        <v>0.84</v>
+        <v>1.7949999999999999</v>
       </c>
       <c r="D226" s="1">
         <v>3739.4250000000002</v>
@@ -10363,7 +10370,7 @@
         <v>14</v>
       </c>
       <c r="C227" s="1">
-        <v>0.84</v>
+        <v>1.6358333333333333</v>
       </c>
       <c r="D227" s="1">
         <v>3771.16</v>
@@ -10407,7 +10414,7 @@
         <v>14</v>
       </c>
       <c r="C228" s="1">
-        <v>0.84</v>
+        <v>1.4766666666666666</v>
       </c>
       <c r="D228" s="1">
         <v>3907.7</v>
@@ -10451,7 +10458,7 @@
         <v>14</v>
       </c>
       <c r="C229" s="1">
-        <v>0.84</v>
+        <v>1.3174999999999999</v>
       </c>
       <c r="D229" s="1">
         <v>4086.9749999999999</v>
@@ -10495,7 +10502,7 @@
         <v>14</v>
       </c>
       <c r="C230" s="1">
-        <v>0.84</v>
+        <v>1.1583333333333332</v>
       </c>
       <c r="D230" s="1">
         <v>4198.0450000000001</v>
@@ -10539,7 +10546,7 @@
         <v>14</v>
       </c>
       <c r="C231" s="1">
-        <v>0.84</v>
+        <v>0.99916666666666654</v>
       </c>
       <c r="D231" s="1">
         <v>4257.01</v>
@@ -10627,7 +10634,7 @@
         <v>14</v>
       </c>
       <c r="C233" s="1">
-        <v>0.84</v>
+        <v>0.89599999999999991</v>
       </c>
       <c r="D233" s="1">
         <v>4464.7700000000004</v>
@@ -10671,7 +10678,7 @@
         <v>14</v>
       </c>
       <c r="C234" s="1">
-        <v>0.84</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="D234" s="1">
         <v>4418.17</v>
@@ -10715,7 +10722,7 @@
         <v>14</v>
       </c>
       <c r="C235" s="1">
-        <v>0.84</v>
+        <v>1.008</v>
       </c>
       <c r="D235" s="1">
         <v>4461.2700000000004</v>
@@ -10759,7 +10766,7 @@
         <v>14</v>
       </c>
       <c r="C236" s="1">
-        <v>0.84</v>
+        <v>1.0640000000000001</v>
       </c>
       <c r="D236" s="1">
         <v>4588.8100000000004</v>
@@ -10803,7 +10810,7 @@
         <v>14</v>
       </c>
       <c r="C237" s="1">
-        <v>0.84</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="D237" s="1">
         <v>4684.5</v>
@@ -10847,7 +10854,7 @@
         <v>14</v>
       </c>
       <c r="C238" s="1">
-        <v>1.4</v>
+        <v>1.1760000000000002</v>
       </c>
       <c r="D238" s="1">
         <v>4646.8450000000003</v>
@@ -10891,7 +10898,7 @@
         <v>14</v>
       </c>
       <c r="C239" s="1">
-        <v>1.4</v>
+        <v>1.2320000000000002</v>
       </c>
       <c r="D239" s="1">
         <v>4446.7550000000001</v>
@@ -10935,7 +10942,7 @@
         <v>14</v>
       </c>
       <c r="C240" s="1">
-        <v>1.4</v>
+        <v>1.2880000000000003</v>
       </c>
       <c r="D240" s="1">
         <v>4446.7749999999996</v>
@@ -10979,7 +10986,7 @@
         <v>14</v>
       </c>
       <c r="C241" s="1">
-        <v>1.4</v>
+        <v>1.3440000000000003</v>
       </c>
       <c r="D241" s="1">
         <v>4336.125</v>
